--- a/回灯乱真_仕様書一覧/ステージセレクト仕様Ver1.20.xlsx
+++ b/回灯乱真_仕様書一覧/ステージセレクト仕様Ver1.20.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohs50102\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohs50080\Desktop\Kaitou\回灯乱真_仕様書一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20145" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20148" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1535,6 +1536,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1547,8 +1550,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1680,8 +1681,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1257300" y="5991225"/>
-          <a:ext cx="3810000" cy="2181225"/>
+          <a:off x="1268730" y="5802630"/>
+          <a:ext cx="3851910" cy="2112645"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -2785,8 +2786,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="561975" y="10725150"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="567690" y="10387965"/>
+          <a:ext cx="2550795" cy="1392555"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -3976,8 +3977,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4204319" y="10746227"/>
-          <a:ext cx="2461284" cy="1377072"/>
+          <a:off x="4248134" y="10409042"/>
+          <a:ext cx="2486049" cy="1337067"/>
           <a:chOff x="1333500" y="8401050"/>
           <a:chExt cx="2238375" cy="1285875"/>
         </a:xfrm>
@@ -4263,8 +4264,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4219575" y="10909434"/>
-          <a:ext cx="1403218" cy="765040"/>
+          <a:off x="4263390" y="10566534"/>
+          <a:ext cx="1418458" cy="742180"/>
           <a:chOff x="1867116" y="8553450"/>
           <a:chExt cx="1276134" cy="714375"/>
         </a:xfrm>
@@ -5484,8 +5485,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7800989" y="10717213"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="7882904" y="10380028"/>
+          <a:ext cx="2550795" cy="1392555"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -6649,8 +6650,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="552450" y="18478500"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="558165" y="17895570"/>
+          <a:ext cx="2550795" cy="1392555"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -7840,8 +7841,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4213844" y="18509096"/>
-          <a:ext cx="2461284" cy="1377071"/>
+          <a:off x="4257659" y="17926166"/>
+          <a:ext cx="2486049" cy="1337066"/>
           <a:chOff x="1333500" y="8401050"/>
           <a:chExt cx="2238375" cy="1285875"/>
         </a:xfrm>
@@ -8127,8 +8128,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4381500" y="18640425"/>
-          <a:ext cx="2085975" cy="1038225"/>
+          <a:off x="4427220" y="18051780"/>
+          <a:ext cx="2106930" cy="1009650"/>
           <a:chOff x="1752601" y="8553450"/>
           <a:chExt cx="1390650" cy="714375"/>
         </a:xfrm>
@@ -8907,8 +8908,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7833344" y="18490052"/>
-          <a:ext cx="2461284" cy="1377072"/>
+          <a:off x="7915259" y="17907122"/>
+          <a:ext cx="2486049" cy="1337067"/>
           <a:chOff x="1333500" y="8401050"/>
           <a:chExt cx="2238375" cy="1285875"/>
         </a:xfrm>
@@ -9051,8 +9052,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7839075" y="18507076"/>
-          <a:ext cx="2438400" cy="1352550"/>
+          <a:off x="7920990" y="17924146"/>
+          <a:ext cx="2463165" cy="1312545"/>
           <a:chOff x="1752601" y="8553450"/>
           <a:chExt cx="1390650" cy="714375"/>
         </a:xfrm>
@@ -9745,8 +9746,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="561975" y="14525625"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="567690" y="14068425"/>
+          <a:ext cx="2550795" cy="1392555"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -10936,8 +10937,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4204319" y="14546702"/>
-          <a:ext cx="2461284" cy="1377072"/>
+          <a:off x="4248134" y="14089502"/>
+          <a:ext cx="2486049" cy="1337067"/>
           <a:chOff x="1333500" y="8401050"/>
           <a:chExt cx="2238375" cy="1285875"/>
         </a:xfrm>
@@ -11223,8 +11224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5248275" y="14709909"/>
-          <a:ext cx="1403218" cy="765040"/>
+          <a:off x="5303520" y="14246994"/>
+          <a:ext cx="1416553" cy="742180"/>
           <a:chOff x="1867116" y="8553450"/>
           <a:chExt cx="1276134" cy="714375"/>
         </a:xfrm>
@@ -12257,8 +12258,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7800989" y="14517688"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="7882904" y="14060488"/>
+          <a:ext cx="2550795" cy="1392555"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -13956,8 +13957,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="542925" y="21897975"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="548640" y="21206460"/>
+          <a:ext cx="2548890" cy="1398270"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -15078,8 +15079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4204319" y="21928577"/>
-          <a:ext cx="2461284" cy="1377072"/>
+          <a:off x="4248134" y="21237062"/>
+          <a:ext cx="2486049" cy="1337067"/>
           <a:chOff x="1333500" y="8401050"/>
           <a:chExt cx="2238375" cy="1285875"/>
         </a:xfrm>
@@ -16122,8 +16123,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="542925" y="26260425"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="548640" y="25431750"/>
+          <a:ext cx="2548890" cy="1392555"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -17158,8 +17159,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4886325" y="26269950"/>
-          <a:ext cx="2590800" cy="1438275"/>
+          <a:off x="4937760" y="25441275"/>
+          <a:ext cx="2617470" cy="1392555"/>
           <a:chOff x="3810000" y="22098000"/>
           <a:chExt cx="2590800" cy="1438275"/>
         </a:xfrm>
@@ -18593,8 +18594,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1257300" y="5991225"/>
-          <a:ext cx="3811418" cy="2181225"/>
+          <a:off x="1268730" y="5802630"/>
+          <a:ext cx="3853328" cy="2112645"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -19698,8 +19699,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1290269" y="5534525"/>
-          <a:ext cx="3792070" cy="417589"/>
+          <a:off x="1303604" y="5363075"/>
+          <a:ext cx="3832075" cy="406159"/>
           <a:chOff x="1262269" y="1470421"/>
           <a:chExt cx="3740528" cy="412829"/>
         </a:xfrm>
@@ -19931,8 +19932,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="-209279" y="6715858"/>
-          <a:ext cx="2124574" cy="731459"/>
+          <a:off x="-167369" y="6489163"/>
+          <a:ext cx="2055994" cy="739079"/>
           <a:chOff x="2081262" y="1187649"/>
           <a:chExt cx="2096595" cy="721878"/>
         </a:xfrm>
@@ -20121,8 +20122,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2616632" y="7274170"/>
-          <a:ext cx="1128193" cy="417838"/>
+          <a:off x="2643302" y="7045570"/>
+          <a:ext cx="1139623" cy="406408"/>
           <a:chOff x="2575789" y="1470421"/>
           <a:chExt cx="1113487" cy="412989"/>
         </a:xfrm>
@@ -20320,8 +20321,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1321968" y="7255351"/>
-          <a:ext cx="1299063" cy="438163"/>
+          <a:off x="1335303" y="7026751"/>
+          <a:ext cx="1312398" cy="426733"/>
           <a:chOff x="2488869" y="1470421"/>
           <a:chExt cx="1280196" cy="432765"/>
         </a:xfrm>
@@ -20519,8 +20520,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3744829" y="7275401"/>
-          <a:ext cx="1271448" cy="420803"/>
+          <a:off x="3782929" y="7046801"/>
+          <a:ext cx="1284783" cy="409373"/>
           <a:chOff x="2505619" y="1470421"/>
           <a:chExt cx="1253831" cy="415856"/>
         </a:xfrm>
@@ -20718,8 +20719,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="2241251" y="7445475"/>
-          <a:ext cx="270156" cy="703709"/>
+          <a:off x="2268873" y="7198778"/>
+          <a:ext cx="264441" cy="711329"/>
           <a:chOff x="2999904" y="1180353"/>
           <a:chExt cx="265270" cy="698631"/>
         </a:xfrm>
@@ -20909,8 +20910,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="2277843" y="7690458"/>
-          <a:ext cx="210592" cy="699065"/>
+          <a:off x="2308323" y="7435188"/>
+          <a:ext cx="199162" cy="706685"/>
           <a:chOff x="2999911" y="1180352"/>
           <a:chExt cx="207774" cy="694027"/>
         </a:xfrm>
@@ -21100,8 +21101,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="1714225" y="6527073"/>
-          <a:ext cx="1353415" cy="709478"/>
+          <a:off x="1758993" y="6308950"/>
+          <a:ext cx="1313410" cy="717098"/>
           <a:chOff x="2446084" y="1180352"/>
           <a:chExt cx="1333142" cy="704289"/>
         </a:xfrm>
@@ -21291,8 +21292,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1926819" y="6363785"/>
-          <a:ext cx="2451674" cy="387275"/>
+          <a:off x="1945869" y="6163760"/>
+          <a:ext cx="2478344" cy="375845"/>
           <a:chOff x="1922914" y="1508662"/>
           <a:chExt cx="2419239" cy="381723"/>
         </a:xfrm>
@@ -21482,8 +21483,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658414" y="6312648"/>
-          <a:ext cx="530884" cy="413509"/>
+          <a:off x="4706039" y="6118338"/>
+          <a:ext cx="536599" cy="396364"/>
           <a:chOff x="2875358" y="1470421"/>
           <a:chExt cx="523876" cy="408203"/>
         </a:xfrm>
@@ -21673,8 +21674,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1191815" y="6314653"/>
-          <a:ext cx="530884" cy="413509"/>
+          <a:off x="1203245" y="6120343"/>
+          <a:ext cx="536599" cy="396364"/>
           <a:chOff x="2875358" y="1470421"/>
           <a:chExt cx="523876" cy="408203"/>
         </a:xfrm>
@@ -21864,8 +21865,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4308497" y="6058483"/>
-          <a:ext cx="530884" cy="690553"/>
+          <a:off x="4352312" y="5869888"/>
+          <a:ext cx="536599" cy="667693"/>
           <a:chOff x="2855514" y="1207176"/>
           <a:chExt cx="523876" cy="682194"/>
         </a:xfrm>
@@ -22055,8 +22056,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1523919" y="6060487"/>
-          <a:ext cx="415531" cy="692553"/>
+          <a:off x="1539159" y="5871892"/>
+          <a:ext cx="419341" cy="669693"/>
           <a:chOff x="2912671" y="1207176"/>
           <a:chExt cx="409563" cy="684176"/>
         </a:xfrm>
@@ -22246,8 +22247,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="2301267" y="7280603"/>
-          <a:ext cx="139187" cy="693576"/>
+          <a:off x="2328890" y="7039620"/>
+          <a:ext cx="133472" cy="701196"/>
           <a:chOff x="3068526" y="1188335"/>
           <a:chExt cx="137541" cy="688606"/>
         </a:xfrm>
@@ -22437,8 +22438,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="2312722" y="5820417"/>
-          <a:ext cx="231318" cy="632099"/>
+          <a:off x="2340344" y="5625155"/>
+          <a:ext cx="225603" cy="639719"/>
           <a:chOff x="3019112" y="1256927"/>
           <a:chExt cx="227581" cy="628085"/>
         </a:xfrm>
@@ -23187,8 +23188,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1257300" y="1828800"/>
-          <a:ext cx="3810000" cy="2181225"/>
+          <a:off x="1268730" y="1771650"/>
+          <a:ext cx="3851910" cy="2112645"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -24448,8 +24449,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1257300" y="1828800"/>
-          <a:ext cx="3811418" cy="2181225"/>
+          <a:off x="1268730" y="1771650"/>
+          <a:ext cx="3853328" cy="2112645"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -25747,8 +25748,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="5071968" y="7681822"/>
-          <a:ext cx="493697" cy="525669"/>
+          <a:off x="5134833" y="7430362"/>
+          <a:ext cx="476552" cy="531384"/>
           <a:chOff x="2505619" y="1099999"/>
           <a:chExt cx="1253831" cy="786278"/>
         </a:xfrm>
@@ -26000,8 +26001,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="542925" y="32870775"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="548640" y="31836360"/>
+          <a:ext cx="2548890" cy="1392555"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -26432,8 +26433,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="542925" y="28975050"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="548640" y="28060650"/>
+          <a:ext cx="2548890" cy="1392555"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -27592,8 +27593,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4385294" y="29005652"/>
-          <a:ext cx="2461284" cy="1377072"/>
+          <a:off x="4431014" y="28091252"/>
+          <a:ext cx="2486049" cy="1337067"/>
           <a:chOff x="1333500" y="8401050"/>
           <a:chExt cx="2238375" cy="1285875"/>
         </a:xfrm>
@@ -27879,8 +27880,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4846131" y="29044998"/>
-          <a:ext cx="1529138" cy="508569"/>
+          <a:off x="4895661" y="28130598"/>
+          <a:ext cx="1546283" cy="491424"/>
           <a:chOff x="1752601" y="8437788"/>
           <a:chExt cx="1390650" cy="714373"/>
         </a:xfrm>
@@ -28807,8 +28808,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7810500" y="28965525"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="7892415" y="28051125"/>
+          <a:ext cx="2550795" cy="1392555"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -29302,8 +29303,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="542925" y="35109150"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="548640" y="34000440"/>
+          <a:ext cx="2548890" cy="1398270"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -29794,8 +29795,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3714750" y="35090100"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="3752850" y="33987105"/>
+          <a:ext cx="2550795" cy="1392555"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -30125,8 +30126,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6810375" y="35118675"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="6880860" y="34009965"/>
+          <a:ext cx="2550795" cy="1392555"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -30557,8 +30558,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9995519" y="35080575"/>
-          <a:ext cx="2461284" cy="1377072"/>
+          <a:off x="10100294" y="33977580"/>
+          <a:ext cx="2486049" cy="1331352"/>
           <a:chOff x="1333500" y="8401050"/>
           <a:chExt cx="2238375" cy="1285875"/>
         </a:xfrm>
@@ -30701,8 +30702,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10456356" y="35119921"/>
-          <a:ext cx="1529138" cy="508569"/>
+          <a:off x="10564941" y="34011211"/>
+          <a:ext cx="1546283" cy="497139"/>
           <a:chOff x="1752601" y="8437788"/>
           <a:chExt cx="1390650" cy="714373"/>
         </a:xfrm>
@@ -31668,8 +31669,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="544298" y="38357175"/>
-          <a:ext cx="2524125" cy="1438275"/>
+          <a:off x="550013" y="37151310"/>
+          <a:ext cx="2548890" cy="1392555"/>
           <a:chOff x="1295400" y="8372475"/>
           <a:chExt cx="2295525" cy="1343025"/>
         </a:xfrm>
@@ -33050,336 +33051,336 @@
   </sheetPr>
   <dimension ref="B1:BY1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E238" sqref="E238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="78" width="2.7109375" customWidth="1"/>
+    <col min="1" max="78" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="27"/>
-      <c r="BN2" s="27"/>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="27"/>
-      <c r="BR2" s="27"/>
-      <c r="BS2" s="27"/>
-      <c r="BT2" s="27"/>
-      <c r="BU2" s="27"/>
-      <c r="BV2" s="27"/>
-      <c r="BW2" s="27"/>
-      <c r="BX2" s="27"/>
-      <c r="BY2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BC2" s="29"/>
+      <c r="BD2" s="29"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="29"/>
+      <c r="BG2" s="29"/>
+      <c r="BH2" s="29"/>
+      <c r="BI2" s="29"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="29"/>
+      <c r="BL2" s="29"/>
+      <c r="BM2" s="29"/>
+      <c r="BN2" s="29"/>
+      <c r="BO2" s="29"/>
+      <c r="BP2" s="29"/>
+      <c r="BQ2" s="29"/>
+      <c r="BR2" s="29"/>
+      <c r="BS2" s="29"/>
+      <c r="BT2" s="29"/>
+      <c r="BU2" s="29"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="29"/>
+      <c r="BX2" s="29"/>
+      <c r="BY2" s="29"/>
     </row>
-    <row r="3" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="27"/>
-      <c r="BD3" s="27"/>
-      <c r="BE3" s="27"/>
-      <c r="BF3" s="27"/>
-      <c r="BG3" s="27"/>
-      <c r="BH3" s="27"/>
-      <c r="BI3" s="27"/>
-      <c r="BJ3" s="27"/>
-      <c r="BK3" s="27"/>
-      <c r="BL3" s="27"/>
-      <c r="BM3" s="27"/>
-      <c r="BN3" s="27"/>
-      <c r="BO3" s="27"/>
-      <c r="BP3" s="27"/>
-      <c r="BQ3" s="27"/>
-      <c r="BR3" s="27"/>
-      <c r="BS3" s="27"/>
-      <c r="BT3" s="27"/>
-      <c r="BU3" s="27"/>
-      <c r="BV3" s="27"/>
-      <c r="BW3" s="27"/>
-      <c r="BX3" s="27"/>
-      <c r="BY3" s="27"/>
+    <row r="3" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="29"/>
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="29"/>
+      <c r="BH3" s="29"/>
+      <c r="BI3" s="29"/>
+      <c r="BJ3" s="29"/>
+      <c r="BK3" s="29"/>
+      <c r="BL3" s="29"/>
+      <c r="BM3" s="29"/>
+      <c r="BN3" s="29"/>
+      <c r="BO3" s="29"/>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="29"/>
+      <c r="BR3" s="29"/>
+      <c r="BS3" s="29"/>
+      <c r="BT3" s="29"/>
+      <c r="BU3" s="29"/>
+      <c r="BV3" s="29"/>
+      <c r="BW3" s="29"/>
+      <c r="BX3" s="29"/>
+      <c r="BY3" s="29"/>
     </row>
-    <row r="4" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="24" t="s">
+    <row r="4" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="25"/>
-      <c r="BC5" s="25"/>
-      <c r="BD5" s="25"/>
-      <c r="BE5" s="25"/>
-      <c r="BF5" s="25"/>
-      <c r="BG5" s="25"/>
-      <c r="BH5" s="25"/>
-      <c r="BI5" s="25"/>
-      <c r="BJ5" s="25"/>
-      <c r="BK5" s="25"/>
-      <c r="BL5" s="25"/>
-      <c r="BM5" s="25"/>
-      <c r="BN5" s="25"/>
-      <c r="BO5" s="25"/>
-      <c r="BP5" s="25"/>
-      <c r="BQ5" s="25"/>
-      <c r="BR5" s="25"/>
-      <c r="BS5" s="25"/>
-      <c r="BT5" s="25"/>
-      <c r="BU5" s="25"/>
-      <c r="BV5" s="25"/>
-      <c r="BW5" s="25"/>
-      <c r="BX5" s="25"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="27"/>
+      <c r="BA5" s="27"/>
+      <c r="BB5" s="27"/>
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="27"/>
+      <c r="BE5" s="27"/>
+      <c r="BF5" s="27"/>
+      <c r="BG5" s="27"/>
+      <c r="BH5" s="27"/>
+      <c r="BI5" s="27"/>
+      <c r="BJ5" s="27"/>
+      <c r="BK5" s="27"/>
+      <c r="BL5" s="27"/>
+      <c r="BM5" s="27"/>
+      <c r="BN5" s="27"/>
+      <c r="BO5" s="27"/>
+      <c r="BP5" s="27"/>
+      <c r="BQ5" s="27"/>
+      <c r="BR5" s="27"/>
+      <c r="BS5" s="27"/>
+      <c r="BT5" s="27"/>
+      <c r="BU5" s="27"/>
+      <c r="BV5" s="27"/>
+      <c r="BW5" s="27"/>
+      <c r="BX5" s="27"/>
     </row>
-    <row r="6" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="25"/>
-      <c r="AV6" s="25"/>
-      <c r="AW6" s="25"/>
-      <c r="AX6" s="25"/>
-      <c r="AY6" s="25"/>
-      <c r="AZ6" s="25"/>
-      <c r="BA6" s="25"/>
-      <c r="BB6" s="25"/>
-      <c r="BC6" s="25"/>
-      <c r="BD6" s="25"/>
-      <c r="BE6" s="25"/>
-      <c r="BF6" s="25"/>
-      <c r="BG6" s="25"/>
-      <c r="BH6" s="25"/>
-      <c r="BI6" s="25"/>
-      <c r="BJ6" s="25"/>
-      <c r="BK6" s="25"/>
-      <c r="BL6" s="25"/>
-      <c r="BM6" s="25"/>
-      <c r="BN6" s="25"/>
-      <c r="BO6" s="25"/>
-      <c r="BP6" s="25"/>
-      <c r="BQ6" s="25"/>
-      <c r="BR6" s="25"/>
-      <c r="BS6" s="25"/>
-      <c r="BT6" s="25"/>
-      <c r="BU6" s="25"/>
-      <c r="BV6" s="25"/>
-      <c r="BW6" s="25"/>
-      <c r="BX6" s="25"/>
+    <row r="6" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="27"/>
+      <c r="AP6" s="27"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="27"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="27"/>
+      <c r="AV6" s="27"/>
+      <c r="AW6" s="27"/>
+      <c r="AX6" s="27"/>
+      <c r="AY6" s="27"/>
+      <c r="AZ6" s="27"/>
+      <c r="BA6" s="27"/>
+      <c r="BB6" s="27"/>
+      <c r="BC6" s="27"/>
+      <c r="BD6" s="27"/>
+      <c r="BE6" s="27"/>
+      <c r="BF6" s="27"/>
+      <c r="BG6" s="27"/>
+      <c r="BH6" s="27"/>
+      <c r="BI6" s="27"/>
+      <c r="BJ6" s="27"/>
+      <c r="BK6" s="27"/>
+      <c r="BL6" s="27"/>
+      <c r="BM6" s="27"/>
+      <c r="BN6" s="27"/>
+      <c r="BO6" s="27"/>
+      <c r="BP6" s="27"/>
+      <c r="BQ6" s="27"/>
+      <c r="BR6" s="27"/>
+      <c r="BS6" s="27"/>
+      <c r="BT6" s="27"/>
+      <c r="BU6" s="27"/>
+      <c r="BV6" s="27"/>
+      <c r="BW6" s="27"/>
+      <c r="BX6" s="27"/>
     </row>
-    <row r="7" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
@@ -33387,7 +33388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG10" s="2"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
@@ -33414,7 +33415,7 @@
       <c r="BD10" s="3"/>
       <c r="BE10" s="4"/>
     </row>
-    <row r="11" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG11" s="15"/>
       <c r="AH11" s="16" t="s">
         <v>13</v>
@@ -33447,7 +33448,7 @@
       <c r="BD11" s="6"/>
       <c r="BE11" s="7"/>
     </row>
-    <row r="12" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AG12" s="8"/>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
@@ -33474,7 +33475,7 @@
       <c r="BD12" s="9"/>
       <c r="BE12" s="10"/>
     </row>
-    <row r="13" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG13" s="18"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
@@ -33501,7 +33502,7 @@
       <c r="BD13" s="3"/>
       <c r="BE13" s="4"/>
     </row>
-    <row r="14" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG14" s="15" t="s">
         <v>15</v>
       </c>
@@ -33534,7 +33535,7 @@
       <c r="BD14" s="6"/>
       <c r="BE14" s="7"/>
     </row>
-    <row r="15" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG15" s="15" t="s">
         <v>16</v>
       </c>
@@ -33567,7 +33568,7 @@
       <c r="BD15" s="6"/>
       <c r="BE15" s="7"/>
     </row>
-    <row r="16" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG16" s="5"/>
       <c r="AH16" s="16" t="s">
         <v>17</v>
@@ -33600,7 +33601,7 @@
       <c r="BD16" s="6"/>
       <c r="BE16" s="7"/>
     </row>
-    <row r="17" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG17" s="15" t="s">
         <v>18</v>
       </c>
@@ -33633,7 +33634,7 @@
       <c r="BD17" s="6"/>
       <c r="BE17" s="7"/>
     </row>
-    <row r="18" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG18" s="15" t="s">
         <v>19</v>
       </c>
@@ -33666,7 +33667,7 @@
       <c r="BD18" s="6"/>
       <c r="BE18" s="7"/>
     </row>
-    <row r="19" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG19" s="5"/>
       <c r="AH19" s="16" t="s">
         <v>20</v>
@@ -33697,7 +33698,7 @@
       <c r="BD19" s="6"/>
       <c r="BE19" s="7"/>
     </row>
-    <row r="20" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG20" s="5"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
@@ -33726,7 +33727,7 @@
       <c r="BD20" s="6"/>
       <c r="BE20" s="7"/>
     </row>
-    <row r="21" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG21" s="5"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
@@ -33753,7 +33754,7 @@
       <c r="BD21" s="6"/>
       <c r="BE21" s="7"/>
     </row>
-    <row r="22" spans="3:76" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:76" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AG22" s="8"/>
       <c r="AH22" s="9"/>
       <c r="AI22" s="9"/>
@@ -33780,178 +33781,178 @@
       <c r="BD22" s="9"/>
       <c r="BE22" s="10"/>
     </row>
-    <row r="23" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="24" t="s">
+    <row r="26" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="25"/>
-      <c r="AQ28" s="25"/>
-      <c r="AR28" s="25"/>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="25"/>
-      <c r="AU28" s="25"/>
-      <c r="AV28" s="25"/>
-      <c r="AW28" s="25"/>
-      <c r="AX28" s="25"/>
-      <c r="AY28" s="25"/>
-      <c r="AZ28" s="25"/>
-      <c r="BA28" s="25"/>
-      <c r="BB28" s="25"/>
-      <c r="BC28" s="25"/>
-      <c r="BD28" s="25"/>
-      <c r="BE28" s="25"/>
-      <c r="BF28" s="25"/>
-      <c r="BG28" s="25"/>
-      <c r="BH28" s="25"/>
-      <c r="BI28" s="25"/>
-      <c r="BJ28" s="25"/>
-      <c r="BK28" s="25"/>
-      <c r="BL28" s="25"/>
-      <c r="BM28" s="25"/>
-      <c r="BN28" s="25"/>
-      <c r="BO28" s="25"/>
-      <c r="BP28" s="25"/>
-      <c r="BQ28" s="25"/>
-      <c r="BR28" s="25"/>
-      <c r="BS28" s="25"/>
-      <c r="BT28" s="25"/>
-      <c r="BU28" s="25"/>
-      <c r="BV28" s="25"/>
-      <c r="BW28" s="25"/>
-      <c r="BX28" s="25"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="27"/>
+      <c r="AQ28" s="27"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27"/>
+      <c r="AT28" s="27"/>
+      <c r="AU28" s="27"/>
+      <c r="AV28" s="27"/>
+      <c r="AW28" s="27"/>
+      <c r="AX28" s="27"/>
+      <c r="AY28" s="27"/>
+      <c r="AZ28" s="27"/>
+      <c r="BA28" s="27"/>
+      <c r="BB28" s="27"/>
+      <c r="BC28" s="27"/>
+      <c r="BD28" s="27"/>
+      <c r="BE28" s="27"/>
+      <c r="BF28" s="27"/>
+      <c r="BG28" s="27"/>
+      <c r="BH28" s="27"/>
+      <c r="BI28" s="27"/>
+      <c r="BJ28" s="27"/>
+      <c r="BK28" s="27"/>
+      <c r="BL28" s="27"/>
+      <c r="BM28" s="27"/>
+      <c r="BN28" s="27"/>
+      <c r="BO28" s="27"/>
+      <c r="BP28" s="27"/>
+      <c r="BQ28" s="27"/>
+      <c r="BR28" s="27"/>
+      <c r="BS28" s="27"/>
+      <c r="BT28" s="27"/>
+      <c r="BU28" s="27"/>
+      <c r="BV28" s="27"/>
+      <c r="BW28" s="27"/>
+      <c r="BX28" s="27"/>
     </row>
-    <row r="29" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="25"/>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="25"/>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="25"/>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="25"/>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="25"/>
-      <c r="AU29" s="25"/>
-      <c r="AV29" s="25"/>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="25"/>
-      <c r="AY29" s="25"/>
-      <c r="AZ29" s="25"/>
-      <c r="BA29" s="25"/>
-      <c r="BB29" s="25"/>
-      <c r="BC29" s="25"/>
-      <c r="BD29" s="25"/>
-      <c r="BE29" s="25"/>
-      <c r="BF29" s="25"/>
-      <c r="BG29" s="25"/>
-      <c r="BH29" s="25"/>
-      <c r="BI29" s="25"/>
-      <c r="BJ29" s="25"/>
-      <c r="BK29" s="25"/>
-      <c r="BL29" s="25"/>
-      <c r="BM29" s="25"/>
-      <c r="BN29" s="25"/>
-      <c r="BO29" s="25"/>
-      <c r="BP29" s="25"/>
-      <c r="BQ29" s="25"/>
-      <c r="BR29" s="25"/>
-      <c r="BS29" s="25"/>
-      <c r="BT29" s="25"/>
-      <c r="BU29" s="25"/>
-      <c r="BV29" s="25"/>
-      <c r="BW29" s="25"/>
-      <c r="BX29" s="25"/>
+    <row r="29" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="27"/>
+      <c r="AQ29" s="27"/>
+      <c r="AR29" s="27"/>
+      <c r="AS29" s="27"/>
+      <c r="AT29" s="27"/>
+      <c r="AU29" s="27"/>
+      <c r="AV29" s="27"/>
+      <c r="AW29" s="27"/>
+      <c r="AX29" s="27"/>
+      <c r="AY29" s="27"/>
+      <c r="AZ29" s="27"/>
+      <c r="BA29" s="27"/>
+      <c r="BB29" s="27"/>
+      <c r="BC29" s="27"/>
+      <c r="BD29" s="27"/>
+      <c r="BE29" s="27"/>
+      <c r="BF29" s="27"/>
+      <c r="BG29" s="27"/>
+      <c r="BH29" s="27"/>
+      <c r="BI29" s="27"/>
+      <c r="BJ29" s="27"/>
+      <c r="BK29" s="27"/>
+      <c r="BL29" s="27"/>
+      <c r="BM29" s="27"/>
+      <c r="BN29" s="27"/>
+      <c r="BO29" s="27"/>
+      <c r="BP29" s="27"/>
+      <c r="BQ29" s="27"/>
+      <c r="BR29" s="27"/>
+      <c r="BS29" s="27"/>
+      <c r="BT29" s="27"/>
+      <c r="BU29" s="27"/>
+      <c r="BV29" s="27"/>
+      <c r="BW29" s="27"/>
+      <c r="BX29" s="27"/>
     </row>
-    <row r="30" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
@@ -33978,7 +33979,7 @@
       <c r="BD33" s="6"/>
       <c r="BE33" s="6"/>
     </row>
-    <row r="34" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG34" s="16"/>
       <c r="AH34" s="16"/>
       <c r="AI34" s="6"/>
@@ -34005,7 +34006,7 @@
       <c r="BD34" s="6"/>
       <c r="BE34" s="6"/>
     </row>
-    <row r="35" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
@@ -34032,7 +34033,7 @@
       <c r="BD35" s="6"/>
       <c r="BE35" s="6"/>
     </row>
-    <row r="36" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG36" s="16"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
@@ -34059,7 +34060,7 @@
       <c r="BD36" s="6"/>
       <c r="BE36" s="6"/>
     </row>
-    <row r="37" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG37" s="16"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
@@ -34086,7 +34087,7 @@
       <c r="BD37" s="6"/>
       <c r="BE37" s="6"/>
     </row>
-    <row r="38" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG38" s="16"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
@@ -34113,7 +34114,7 @@
       <c r="BD38" s="6"/>
       <c r="BE38" s="6"/>
     </row>
-    <row r="39" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG39" s="6"/>
       <c r="AH39" s="16"/>
       <c r="AI39" s="6"/>
@@ -34140,7 +34141,7 @@
       <c r="BD39" s="6"/>
       <c r="BE39" s="6"/>
     </row>
-    <row r="40" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG40" s="16"/>
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
@@ -34167,7 +34168,7 @@
       <c r="BD40" s="6"/>
       <c r="BE40" s="6"/>
     </row>
-    <row r="41" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG41" s="16"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
@@ -34194,7 +34195,7 @@
       <c r="BD41" s="6"/>
       <c r="BE41" s="6"/>
     </row>
-    <row r="42" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG42" s="6"/>
       <c r="AH42" s="16"/>
       <c r="AI42" s="6"/>
@@ -34221,7 +34222,7 @@
       <c r="BD42" s="6"/>
       <c r="BE42" s="6"/>
     </row>
-    <row r="43" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
@@ -34248,7 +34249,7 @@
       <c r="BD43" s="6"/>
       <c r="BE43" s="6"/>
     </row>
-    <row r="44" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
@@ -34275,7 +34276,7 @@
       <c r="BD44" s="6"/>
       <c r="BE44" s="6"/>
     </row>
-    <row r="45" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
@@ -34302,209 +34303,209 @@
       <c r="BD45" s="6"/>
       <c r="BE45" s="6"/>
     </row>
-    <row r="46" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="18:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="24" t="s">
+    <row r="49" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="25"/>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="25"/>
-      <c r="AD51" s="25"/>
-      <c r="AE51" s="25"/>
-      <c r="AF51" s="25"/>
-      <c r="AG51" s="25"/>
-      <c r="AH51" s="25"/>
-      <c r="AI51" s="25"/>
-      <c r="AJ51" s="25"/>
-      <c r="AK51" s="25"/>
-      <c r="AL51" s="25"/>
-      <c r="AM51" s="25"/>
-      <c r="AN51" s="25"/>
-      <c r="AO51" s="25"/>
-      <c r="AP51" s="25"/>
-      <c r="AQ51" s="25"/>
-      <c r="AR51" s="25"/>
-      <c r="AS51" s="25"/>
-      <c r="AT51" s="25"/>
-      <c r="AU51" s="25"/>
-      <c r="AV51" s="25"/>
-      <c r="AW51" s="25"/>
-      <c r="AX51" s="25"/>
-      <c r="AY51" s="25"/>
-      <c r="AZ51" s="25"/>
-      <c r="BA51" s="25"/>
-      <c r="BB51" s="25"/>
-      <c r="BC51" s="25"/>
-      <c r="BD51" s="25"/>
-      <c r="BE51" s="25"/>
-      <c r="BF51" s="25"/>
-      <c r="BG51" s="25"/>
-      <c r="BH51" s="25"/>
-      <c r="BI51" s="25"/>
-      <c r="BJ51" s="25"/>
-      <c r="BK51" s="25"/>
-      <c r="BL51" s="25"/>
-      <c r="BM51" s="25"/>
-      <c r="BN51" s="25"/>
-      <c r="BO51" s="25"/>
-      <c r="BP51" s="25"/>
-      <c r="BQ51" s="25"/>
-      <c r="BR51" s="25"/>
-      <c r="BS51" s="25"/>
-      <c r="BT51" s="25"/>
-      <c r="BU51" s="25"/>
-      <c r="BV51" s="25"/>
-      <c r="BW51" s="25"/>
-      <c r="BX51" s="25"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="27"/>
+      <c r="AH51" s="27"/>
+      <c r="AI51" s="27"/>
+      <c r="AJ51" s="27"/>
+      <c r="AK51" s="27"/>
+      <c r="AL51" s="27"/>
+      <c r="AM51" s="27"/>
+      <c r="AN51" s="27"/>
+      <c r="AO51" s="27"/>
+      <c r="AP51" s="27"/>
+      <c r="AQ51" s="27"/>
+      <c r="AR51" s="27"/>
+      <c r="AS51" s="27"/>
+      <c r="AT51" s="27"/>
+      <c r="AU51" s="27"/>
+      <c r="AV51" s="27"/>
+      <c r="AW51" s="27"/>
+      <c r="AX51" s="27"/>
+      <c r="AY51" s="27"/>
+      <c r="AZ51" s="27"/>
+      <c r="BA51" s="27"/>
+      <c r="BB51" s="27"/>
+      <c r="BC51" s="27"/>
+      <c r="BD51" s="27"/>
+      <c r="BE51" s="27"/>
+      <c r="BF51" s="27"/>
+      <c r="BG51" s="27"/>
+      <c r="BH51" s="27"/>
+      <c r="BI51" s="27"/>
+      <c r="BJ51" s="27"/>
+      <c r="BK51" s="27"/>
+      <c r="BL51" s="27"/>
+      <c r="BM51" s="27"/>
+      <c r="BN51" s="27"/>
+      <c r="BO51" s="27"/>
+      <c r="BP51" s="27"/>
+      <c r="BQ51" s="27"/>
+      <c r="BR51" s="27"/>
+      <c r="BS51" s="27"/>
+      <c r="BT51" s="27"/>
+      <c r="BU51" s="27"/>
+      <c r="BV51" s="27"/>
+      <c r="BW51" s="27"/>
+      <c r="BX51" s="27"/>
     </row>
-    <row r="52" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="25"/>
-      <c r="V52" s="25"/>
-      <c r="W52" s="25"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="25"/>
-      <c r="AA52" s="25"/>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="25"/>
-      <c r="AD52" s="25"/>
-      <c r="AE52" s="25"/>
-      <c r="AF52" s="25"/>
-      <c r="AG52" s="25"/>
-      <c r="AH52" s="25"/>
-      <c r="AI52" s="25"/>
-      <c r="AJ52" s="25"/>
-      <c r="AK52" s="25"/>
-      <c r="AL52" s="25"/>
-      <c r="AM52" s="25"/>
-      <c r="AN52" s="25"/>
-      <c r="AO52" s="25"/>
-      <c r="AP52" s="25"/>
-      <c r="AQ52" s="25"/>
-      <c r="AR52" s="25"/>
-      <c r="AS52" s="25"/>
-      <c r="AT52" s="25"/>
-      <c r="AU52" s="25"/>
-      <c r="AV52" s="25"/>
-      <c r="AW52" s="25"/>
-      <c r="AX52" s="25"/>
-      <c r="AY52" s="25"/>
-      <c r="AZ52" s="25"/>
-      <c r="BA52" s="25"/>
-      <c r="BB52" s="25"/>
-      <c r="BC52" s="25"/>
-      <c r="BD52" s="25"/>
-      <c r="BE52" s="25"/>
-      <c r="BF52" s="25"/>
-      <c r="BG52" s="25"/>
-      <c r="BH52" s="25"/>
-      <c r="BI52" s="25"/>
-      <c r="BJ52" s="25"/>
-      <c r="BK52" s="25"/>
-      <c r="BL52" s="25"/>
-      <c r="BM52" s="25"/>
-      <c r="BN52" s="25"/>
-      <c r="BO52" s="25"/>
-      <c r="BP52" s="25"/>
-      <c r="BQ52" s="25"/>
-      <c r="BR52" s="25"/>
-      <c r="BS52" s="25"/>
-      <c r="BT52" s="25"/>
-      <c r="BU52" s="25"/>
-      <c r="BV52" s="25"/>
-      <c r="BW52" s="25"/>
-      <c r="BX52" s="25"/>
+    <row r="52" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="27"/>
+      <c r="AD52" s="27"/>
+      <c r="AE52" s="27"/>
+      <c r="AF52" s="27"/>
+      <c r="AG52" s="27"/>
+      <c r="AH52" s="27"/>
+      <c r="AI52" s="27"/>
+      <c r="AJ52" s="27"/>
+      <c r="AK52" s="27"/>
+      <c r="AL52" s="27"/>
+      <c r="AM52" s="27"/>
+      <c r="AN52" s="27"/>
+      <c r="AO52" s="27"/>
+      <c r="AP52" s="27"/>
+      <c r="AQ52" s="27"/>
+      <c r="AR52" s="27"/>
+      <c r="AS52" s="27"/>
+      <c r="AT52" s="27"/>
+      <c r="AU52" s="27"/>
+      <c r="AV52" s="27"/>
+      <c r="AW52" s="27"/>
+      <c r="AX52" s="27"/>
+      <c r="AY52" s="27"/>
+      <c r="AZ52" s="27"/>
+      <c r="BA52" s="27"/>
+      <c r="BB52" s="27"/>
+      <c r="BC52" s="27"/>
+      <c r="BD52" s="27"/>
+      <c r="BE52" s="27"/>
+      <c r="BF52" s="27"/>
+      <c r="BG52" s="27"/>
+      <c r="BH52" s="27"/>
+      <c r="BI52" s="27"/>
+      <c r="BJ52" s="27"/>
+      <c r="BK52" s="27"/>
+      <c r="BL52" s="27"/>
+      <c r="BM52" s="27"/>
+      <c r="BN52" s="27"/>
+      <c r="BO52" s="27"/>
+      <c r="BP52" s="27"/>
+      <c r="BQ52" s="27"/>
+      <c r="BR52" s="27"/>
+      <c r="BS52" s="27"/>
+      <c r="BT52" s="27"/>
+      <c r="BU52" s="27"/>
+      <c r="BV52" s="27"/>
+      <c r="BW52" s="27"/>
+      <c r="BX52" s="27"/>
     </row>
-    <row r="53" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D54" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH66" s="6"/>
       <c r="BI66" s="6"/>
     </row>
-    <row r="67" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH67" s="6"/>
       <c r="BI67" s="6"/>
     </row>
-    <row r="68" spans="3:61" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:61" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BH68" s="6"/>
       <c r="BI68" s="6"/>
     </row>
-    <row r="69" spans="3:61" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:61" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="6"/>
       <c r="D69" s="11"/>
       <c r="E69" s="12"/>
@@ -34571,7 +34572,7 @@
       <c r="BH69" s="6"/>
       <c r="BI69" s="6"/>
     </row>
-    <row r="70" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="6"/>
       <c r="D70" s="15" t="s">
         <v>10</v>
@@ -34638,7 +34639,7 @@
       <c r="BH70" s="6"/>
       <c r="BI70" s="6"/>
     </row>
-    <row r="71" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="6"/>
       <c r="D71" s="5"/>
       <c r="E71" s="16" t="s">
@@ -34705,7 +34706,7 @@
       <c r="BH71" s="6"/>
       <c r="BI71" s="6"/>
     </row>
-    <row r="72" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="6"/>
       <c r="D72" s="5"/>
       <c r="E72" s="16"/>
@@ -34770,7 +34771,7 @@
       <c r="BF72" s="6"/>
       <c r="BG72" s="6"/>
     </row>
-    <row r="73" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="6"/>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
@@ -34835,7 +34836,7 @@
       <c r="BF73" s="6"/>
       <c r="BG73" s="6"/>
     </row>
-    <row r="74" spans="3:61" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:61" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C74" s="6"/>
       <c r="D74" s="8"/>
       <c r="E74" s="9"/>
@@ -34894,32 +34895,32 @@
       <c r="BF74" s="6"/>
       <c r="BG74" s="6"/>
     </row>
-    <row r="75" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="4:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="4:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="4:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="4:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D90" s="11"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -34982,7 +34983,7 @@
       <c r="BE90" s="13"/>
       <c r="BF90" s="6"/>
     </row>
-    <row r="91" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" s="15" t="s">
         <v>10</v>
       </c>
@@ -35045,7 +35046,7 @@
       <c r="BE91" s="7"/>
       <c r="BF91" s="6"/>
     </row>
-    <row r="92" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D92" s="5"/>
       <c r="E92" s="16" t="s">
         <v>39</v>
@@ -35108,7 +35109,7 @@
       <c r="BE92" s="7"/>
       <c r="BF92" s="6"/>
     </row>
-    <row r="93" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D93" s="5"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16" t="s">
@@ -35171,7 +35172,7 @@
       <c r="BE93" s="7"/>
       <c r="BF93" s="6"/>
     </row>
-    <row r="94" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
       <c r="F94" s="16" t="s">
@@ -35234,7 +35235,7 @@
       <c r="BE94" s="7"/>
       <c r="BF94" s="6"/>
     </row>
-    <row r="95" spans="4:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D95" s="8"/>
       <c r="E95" s="9"/>
       <c r="F95" s="17"/>
@@ -35291,33 +35292,33 @@
       <c r="BE95" s="10"/>
       <c r="BF95" s="6"/>
     </row>
-    <row r="96" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D101" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="4:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="4:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="4:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="4:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D112" s="11"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
@@ -35367,7 +35368,7 @@
       <c r="BD112" s="12"/>
       <c r="BE112" s="13"/>
     </row>
-    <row r="113" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D113" s="15" t="s">
         <v>10</v>
       </c>
@@ -35417,7 +35418,7 @@
       <c r="BD113" s="6"/>
       <c r="BE113" s="7"/>
     </row>
-    <row r="114" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D114" s="5"/>
       <c r="E114" s="16" t="s">
         <v>55</v>
@@ -35467,7 +35468,7 @@
       <c r="BD114" s="6"/>
       <c r="BE114" s="7"/>
     </row>
-    <row r="115" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D115" s="5"/>
       <c r="E115" s="16"/>
       <c r="F115" s="16" t="s">
@@ -35517,7 +35518,7 @@
       <c r="BD115" s="6"/>
       <c r="BE115" s="7"/>
     </row>
-    <row r="116" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D116" s="5"/>
       <c r="E116" s="6"/>
       <c r="F116" s="16" t="s">
@@ -35567,7 +35568,7 @@
       <c r="BD116" s="6"/>
       <c r="BE116" s="7"/>
     </row>
-    <row r="117" spans="4:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D117" s="8"/>
       <c r="E117" s="9"/>
       <c r="F117" s="17" t="s">
@@ -35617,24 +35618,24 @@
       <c r="BD117" s="9"/>
       <c r="BE117" s="10"/>
     </row>
-    <row r="118" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D120" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" spans="3:76" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="3:76" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="3:76" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="3:76" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D131" s="11"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
@@ -35696,7 +35697,7 @@
       <c r="BD131" s="12"/>
       <c r="BE131" s="13"/>
     </row>
-    <row r="132" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D132" s="15" t="s">
         <v>10</v>
       </c>
@@ -35758,7 +35759,7 @@
       <c r="BD132" s="6"/>
       <c r="BE132" s="7"/>
     </row>
-    <row r="133" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D133" s="5"/>
       <c r="E133" s="16" t="s">
         <v>39</v>
@@ -35820,7 +35821,7 @@
       <c r="BD133" s="6"/>
       <c r="BE133" s="7"/>
     </row>
-    <row r="134" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D134" s="5"/>
       <c r="E134" s="16"/>
       <c r="F134" s="16" t="s">
@@ -35882,7 +35883,7 @@
       <c r="BD134" s="6"/>
       <c r="BE134" s="7"/>
     </row>
-    <row r="135" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D135" s="5"/>
       <c r="E135" s="6"/>
       <c r="F135" s="16" t="s">
@@ -35944,7 +35945,7 @@
       <c r="BD135" s="6"/>
       <c r="BE135" s="7"/>
     </row>
-    <row r="136" spans="3:76" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:76" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D136" s="8"/>
       <c r="E136" s="9"/>
       <c r="F136" s="17"/>
@@ -36002,345 +36003,345 @@
       <c r="BD136" s="9"/>
       <c r="BE136" s="10"/>
     </row>
-    <row r="137" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="24" t="s">
+    <row r="137" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D139" s="25"/>
-      <c r="E139" s="25"/>
-      <c r="F139" s="25"/>
-      <c r="G139" s="25"/>
-      <c r="H139" s="25"/>
-      <c r="I139" s="25"/>
-      <c r="J139" s="25"/>
-      <c r="K139" s="25"/>
-      <c r="L139" s="25"/>
-      <c r="M139" s="25"/>
-      <c r="N139" s="25"/>
-      <c r="O139" s="25"/>
-      <c r="P139" s="25"/>
-      <c r="Q139" s="25"/>
-      <c r="R139" s="25"/>
-      <c r="S139" s="25"/>
-      <c r="T139" s="25"/>
-      <c r="U139" s="25"/>
-      <c r="V139" s="25"/>
-      <c r="W139" s="25"/>
-      <c r="X139" s="25"/>
-      <c r="Y139" s="25"/>
-      <c r="Z139" s="25"/>
-      <c r="AA139" s="25"/>
-      <c r="AB139" s="25"/>
-      <c r="AC139" s="25"/>
-      <c r="AD139" s="25"/>
-      <c r="AE139" s="25"/>
-      <c r="AF139" s="25"/>
-      <c r="AG139" s="25"/>
-      <c r="AH139" s="25"/>
-      <c r="AI139" s="25"/>
-      <c r="AJ139" s="25"/>
-      <c r="AK139" s="25"/>
-      <c r="AL139" s="25"/>
-      <c r="AM139" s="25"/>
-      <c r="AN139" s="25"/>
-      <c r="AO139" s="25"/>
-      <c r="AP139" s="25"/>
-      <c r="AQ139" s="25"/>
-      <c r="AR139" s="25"/>
-      <c r="AS139" s="25"/>
-      <c r="AT139" s="25"/>
-      <c r="AU139" s="25"/>
-      <c r="AV139" s="25"/>
-      <c r="AW139" s="25"/>
-      <c r="AX139" s="25"/>
-      <c r="AY139" s="25"/>
-      <c r="AZ139" s="25"/>
-      <c r="BA139" s="25"/>
-      <c r="BB139" s="25"/>
-      <c r="BC139" s="25"/>
-      <c r="BD139" s="25"/>
-      <c r="BE139" s="25"/>
-      <c r="BF139" s="25"/>
-      <c r="BG139" s="25"/>
-      <c r="BH139" s="25"/>
-      <c r="BI139" s="25"/>
-      <c r="BJ139" s="25"/>
-      <c r="BK139" s="25"/>
-      <c r="BL139" s="25"/>
-      <c r="BM139" s="25"/>
-      <c r="BN139" s="25"/>
-      <c r="BO139" s="25"/>
-      <c r="BP139" s="25"/>
-      <c r="BQ139" s="25"/>
-      <c r="BR139" s="25"/>
-      <c r="BS139" s="25"/>
-      <c r="BT139" s="25"/>
-      <c r="BU139" s="25"/>
-      <c r="BV139" s="25"/>
-      <c r="BW139" s="25"/>
-      <c r="BX139" s="25"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="27"/>
+      <c r="L139" s="27"/>
+      <c r="M139" s="27"/>
+      <c r="N139" s="27"/>
+      <c r="O139" s="27"/>
+      <c r="P139" s="27"/>
+      <c r="Q139" s="27"/>
+      <c r="R139" s="27"/>
+      <c r="S139" s="27"/>
+      <c r="T139" s="27"/>
+      <c r="U139" s="27"/>
+      <c r="V139" s="27"/>
+      <c r="W139" s="27"/>
+      <c r="X139" s="27"/>
+      <c r="Y139" s="27"/>
+      <c r="Z139" s="27"/>
+      <c r="AA139" s="27"/>
+      <c r="AB139" s="27"/>
+      <c r="AC139" s="27"/>
+      <c r="AD139" s="27"/>
+      <c r="AE139" s="27"/>
+      <c r="AF139" s="27"/>
+      <c r="AG139" s="27"/>
+      <c r="AH139" s="27"/>
+      <c r="AI139" s="27"/>
+      <c r="AJ139" s="27"/>
+      <c r="AK139" s="27"/>
+      <c r="AL139" s="27"/>
+      <c r="AM139" s="27"/>
+      <c r="AN139" s="27"/>
+      <c r="AO139" s="27"/>
+      <c r="AP139" s="27"/>
+      <c r="AQ139" s="27"/>
+      <c r="AR139" s="27"/>
+      <c r="AS139" s="27"/>
+      <c r="AT139" s="27"/>
+      <c r="AU139" s="27"/>
+      <c r="AV139" s="27"/>
+      <c r="AW139" s="27"/>
+      <c r="AX139" s="27"/>
+      <c r="AY139" s="27"/>
+      <c r="AZ139" s="27"/>
+      <c r="BA139" s="27"/>
+      <c r="BB139" s="27"/>
+      <c r="BC139" s="27"/>
+      <c r="BD139" s="27"/>
+      <c r="BE139" s="27"/>
+      <c r="BF139" s="27"/>
+      <c r="BG139" s="27"/>
+      <c r="BH139" s="27"/>
+      <c r="BI139" s="27"/>
+      <c r="BJ139" s="27"/>
+      <c r="BK139" s="27"/>
+      <c r="BL139" s="27"/>
+      <c r="BM139" s="27"/>
+      <c r="BN139" s="27"/>
+      <c r="BO139" s="27"/>
+      <c r="BP139" s="27"/>
+      <c r="BQ139" s="27"/>
+      <c r="BR139" s="27"/>
+      <c r="BS139" s="27"/>
+      <c r="BT139" s="27"/>
+      <c r="BU139" s="27"/>
+      <c r="BV139" s="27"/>
+      <c r="BW139" s="27"/>
+      <c r="BX139" s="27"/>
     </row>
-    <row r="140" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="25"/>
-      <c r="G140" s="25"/>
-      <c r="H140" s="25"/>
-      <c r="I140" s="25"/>
-      <c r="J140" s="25"/>
-      <c r="K140" s="25"/>
-      <c r="L140" s="25"/>
-      <c r="M140" s="25"/>
-      <c r="N140" s="25"/>
-      <c r="O140" s="25"/>
-      <c r="P140" s="25"/>
-      <c r="Q140" s="25"/>
-      <c r="R140" s="25"/>
-      <c r="S140" s="25"/>
-      <c r="T140" s="25"/>
-      <c r="U140" s="25"/>
-      <c r="V140" s="25"/>
-      <c r="W140" s="25"/>
-      <c r="X140" s="25"/>
-      <c r="Y140" s="25"/>
-      <c r="Z140" s="25"/>
-      <c r="AA140" s="25"/>
-      <c r="AB140" s="25"/>
-      <c r="AC140" s="25"/>
-      <c r="AD140" s="25"/>
-      <c r="AE140" s="25"/>
-      <c r="AF140" s="25"/>
-      <c r="AG140" s="25"/>
-      <c r="AH140" s="25"/>
-      <c r="AI140" s="25"/>
-      <c r="AJ140" s="25"/>
-      <c r="AK140" s="25"/>
-      <c r="AL140" s="25"/>
-      <c r="AM140" s="25"/>
-      <c r="AN140" s="25"/>
-      <c r="AO140" s="25"/>
-      <c r="AP140" s="25"/>
-      <c r="AQ140" s="25"/>
-      <c r="AR140" s="25"/>
-      <c r="AS140" s="25"/>
-      <c r="AT140" s="25"/>
-      <c r="AU140" s="25"/>
-      <c r="AV140" s="25"/>
-      <c r="AW140" s="25"/>
-      <c r="AX140" s="25"/>
-      <c r="AY140" s="25"/>
-      <c r="AZ140" s="25"/>
-      <c r="BA140" s="25"/>
-      <c r="BB140" s="25"/>
-      <c r="BC140" s="25"/>
-      <c r="BD140" s="25"/>
-      <c r="BE140" s="25"/>
-      <c r="BF140" s="25"/>
-      <c r="BG140" s="25"/>
-      <c r="BH140" s="25"/>
-      <c r="BI140" s="25"/>
-      <c r="BJ140" s="25"/>
-      <c r="BK140" s="25"/>
-      <c r="BL140" s="25"/>
-      <c r="BM140" s="25"/>
-      <c r="BN140" s="25"/>
-      <c r="BO140" s="25"/>
-      <c r="BP140" s="25"/>
-      <c r="BQ140" s="25"/>
-      <c r="BR140" s="25"/>
-      <c r="BS140" s="25"/>
-      <c r="BT140" s="25"/>
-      <c r="BU140" s="25"/>
-      <c r="BV140" s="25"/>
-      <c r="BW140" s="25"/>
-      <c r="BX140" s="25"/>
+    <row r="140" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="27"/>
+      <c r="K140" s="27"/>
+      <c r="L140" s="27"/>
+      <c r="M140" s="27"/>
+      <c r="N140" s="27"/>
+      <c r="O140" s="27"/>
+      <c r="P140" s="27"/>
+      <c r="Q140" s="27"/>
+      <c r="R140" s="27"/>
+      <c r="S140" s="27"/>
+      <c r="T140" s="27"/>
+      <c r="U140" s="27"/>
+      <c r="V140" s="27"/>
+      <c r="W140" s="27"/>
+      <c r="X140" s="27"/>
+      <c r="Y140" s="27"/>
+      <c r="Z140" s="27"/>
+      <c r="AA140" s="27"/>
+      <c r="AB140" s="27"/>
+      <c r="AC140" s="27"/>
+      <c r="AD140" s="27"/>
+      <c r="AE140" s="27"/>
+      <c r="AF140" s="27"/>
+      <c r="AG140" s="27"/>
+      <c r="AH140" s="27"/>
+      <c r="AI140" s="27"/>
+      <c r="AJ140" s="27"/>
+      <c r="AK140" s="27"/>
+      <c r="AL140" s="27"/>
+      <c r="AM140" s="27"/>
+      <c r="AN140" s="27"/>
+      <c r="AO140" s="27"/>
+      <c r="AP140" s="27"/>
+      <c r="AQ140" s="27"/>
+      <c r="AR140" s="27"/>
+      <c r="AS140" s="27"/>
+      <c r="AT140" s="27"/>
+      <c r="AU140" s="27"/>
+      <c r="AV140" s="27"/>
+      <c r="AW140" s="27"/>
+      <c r="AX140" s="27"/>
+      <c r="AY140" s="27"/>
+      <c r="AZ140" s="27"/>
+      <c r="BA140" s="27"/>
+      <c r="BB140" s="27"/>
+      <c r="BC140" s="27"/>
+      <c r="BD140" s="27"/>
+      <c r="BE140" s="27"/>
+      <c r="BF140" s="27"/>
+      <c r="BG140" s="27"/>
+      <c r="BH140" s="27"/>
+      <c r="BI140" s="27"/>
+      <c r="BJ140" s="27"/>
+      <c r="BK140" s="27"/>
+      <c r="BL140" s="27"/>
+      <c r="BM140" s="27"/>
+      <c r="BN140" s="27"/>
+      <c r="BO140" s="27"/>
+      <c r="BP140" s="27"/>
+      <c r="BQ140" s="27"/>
+      <c r="BR140" s="27"/>
+      <c r="BS140" s="27"/>
+      <c r="BT140" s="27"/>
+      <c r="BU140" s="27"/>
+      <c r="BV140" s="27"/>
+      <c r="BW140" s="27"/>
+      <c r="BX140" s="27"/>
     </row>
-    <row r="141" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D142" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="143" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E143" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S148" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C157" s="24" t="s">
+    <row r="149" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D157" s="25"/>
-      <c r="E157" s="25"/>
-      <c r="F157" s="25"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="25"/>
-      <c r="I157" s="25"/>
-      <c r="J157" s="25"/>
-      <c r="K157" s="25"/>
-      <c r="L157" s="25"/>
-      <c r="M157" s="25"/>
-      <c r="N157" s="25"/>
-      <c r="O157" s="25"/>
-      <c r="P157" s="25"/>
-      <c r="Q157" s="25"/>
-      <c r="R157" s="25"/>
-      <c r="S157" s="25"/>
-      <c r="T157" s="25"/>
-      <c r="U157" s="25"/>
-      <c r="V157" s="25"/>
-      <c r="W157" s="25"/>
-      <c r="X157" s="25"/>
-      <c r="Y157" s="25"/>
-      <c r="Z157" s="25"/>
-      <c r="AA157" s="25"/>
-      <c r="AB157" s="25"/>
-      <c r="AC157" s="25"/>
-      <c r="AD157" s="25"/>
-      <c r="AE157" s="25"/>
-      <c r="AF157" s="25"/>
-      <c r="AG157" s="25"/>
-      <c r="AH157" s="25"/>
-      <c r="AI157" s="25"/>
-      <c r="AJ157" s="25"/>
-      <c r="AK157" s="25"/>
-      <c r="AL157" s="25"/>
-      <c r="AM157" s="25"/>
-      <c r="AN157" s="25"/>
-      <c r="AO157" s="25"/>
-      <c r="AP157" s="25"/>
-      <c r="AQ157" s="25"/>
-      <c r="AR157" s="25"/>
-      <c r="AS157" s="25"/>
-      <c r="AT157" s="25"/>
-      <c r="AU157" s="25"/>
-      <c r="AV157" s="25"/>
-      <c r="AW157" s="25"/>
-      <c r="AX157" s="25"/>
-      <c r="AY157" s="25"/>
-      <c r="AZ157" s="25"/>
-      <c r="BA157" s="25"/>
-      <c r="BB157" s="25"/>
-      <c r="BC157" s="25"/>
-      <c r="BD157" s="25"/>
-      <c r="BE157" s="25"/>
-      <c r="BF157" s="25"/>
-      <c r="BG157" s="25"/>
-      <c r="BH157" s="25"/>
-      <c r="BI157" s="25"/>
-      <c r="BJ157" s="25"/>
-      <c r="BK157" s="25"/>
-      <c r="BL157" s="25"/>
-      <c r="BM157" s="25"/>
-      <c r="BN157" s="25"/>
-      <c r="BO157" s="25"/>
-      <c r="BP157" s="25"/>
-      <c r="BQ157" s="25"/>
-      <c r="BR157" s="25"/>
-      <c r="BS157" s="25"/>
-      <c r="BT157" s="25"/>
-      <c r="BU157" s="25"/>
-      <c r="BV157" s="25"/>
-      <c r="BW157" s="25"/>
-      <c r="BX157" s="25"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="27"/>
+      <c r="K157" s="27"/>
+      <c r="L157" s="27"/>
+      <c r="M157" s="27"/>
+      <c r="N157" s="27"/>
+      <c r="O157" s="27"/>
+      <c r="P157" s="27"/>
+      <c r="Q157" s="27"/>
+      <c r="R157" s="27"/>
+      <c r="S157" s="27"/>
+      <c r="T157" s="27"/>
+      <c r="U157" s="27"/>
+      <c r="V157" s="27"/>
+      <c r="W157" s="27"/>
+      <c r="X157" s="27"/>
+      <c r="Y157" s="27"/>
+      <c r="Z157" s="27"/>
+      <c r="AA157" s="27"/>
+      <c r="AB157" s="27"/>
+      <c r="AC157" s="27"/>
+      <c r="AD157" s="27"/>
+      <c r="AE157" s="27"/>
+      <c r="AF157" s="27"/>
+      <c r="AG157" s="27"/>
+      <c r="AH157" s="27"/>
+      <c r="AI157" s="27"/>
+      <c r="AJ157" s="27"/>
+      <c r="AK157" s="27"/>
+      <c r="AL157" s="27"/>
+      <c r="AM157" s="27"/>
+      <c r="AN157" s="27"/>
+      <c r="AO157" s="27"/>
+      <c r="AP157" s="27"/>
+      <c r="AQ157" s="27"/>
+      <c r="AR157" s="27"/>
+      <c r="AS157" s="27"/>
+      <c r="AT157" s="27"/>
+      <c r="AU157" s="27"/>
+      <c r="AV157" s="27"/>
+      <c r="AW157" s="27"/>
+      <c r="AX157" s="27"/>
+      <c r="AY157" s="27"/>
+      <c r="AZ157" s="27"/>
+      <c r="BA157" s="27"/>
+      <c r="BB157" s="27"/>
+      <c r="BC157" s="27"/>
+      <c r="BD157" s="27"/>
+      <c r="BE157" s="27"/>
+      <c r="BF157" s="27"/>
+      <c r="BG157" s="27"/>
+      <c r="BH157" s="27"/>
+      <c r="BI157" s="27"/>
+      <c r="BJ157" s="27"/>
+      <c r="BK157" s="27"/>
+      <c r="BL157" s="27"/>
+      <c r="BM157" s="27"/>
+      <c r="BN157" s="27"/>
+      <c r="BO157" s="27"/>
+      <c r="BP157" s="27"/>
+      <c r="BQ157" s="27"/>
+      <c r="BR157" s="27"/>
+      <c r="BS157" s="27"/>
+      <c r="BT157" s="27"/>
+      <c r="BU157" s="27"/>
+      <c r="BV157" s="27"/>
+      <c r="BW157" s="27"/>
+      <c r="BX157" s="27"/>
     </row>
-    <row r="158" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="25"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="25"/>
-      <c r="H158" s="25"/>
-      <c r="I158" s="25"/>
-      <c r="J158" s="25"/>
-      <c r="K158" s="25"/>
-      <c r="L158" s="25"/>
-      <c r="M158" s="25"/>
-      <c r="N158" s="25"/>
-      <c r="O158" s="25"/>
-      <c r="P158" s="25"/>
-      <c r="Q158" s="25"/>
-      <c r="R158" s="25"/>
-      <c r="S158" s="25"/>
-      <c r="T158" s="25"/>
-      <c r="U158" s="25"/>
-      <c r="V158" s="25"/>
-      <c r="W158" s="25"/>
-      <c r="X158" s="25"/>
-      <c r="Y158" s="25"/>
-      <c r="Z158" s="25"/>
-      <c r="AA158" s="25"/>
-      <c r="AB158" s="25"/>
-      <c r="AC158" s="25"/>
-      <c r="AD158" s="25"/>
-      <c r="AE158" s="25"/>
-      <c r="AF158" s="25"/>
-      <c r="AG158" s="25"/>
-      <c r="AH158" s="25"/>
-      <c r="AI158" s="25"/>
-      <c r="AJ158" s="25"/>
-      <c r="AK158" s="25"/>
-      <c r="AL158" s="25"/>
-      <c r="AM158" s="25"/>
-      <c r="AN158" s="25"/>
-      <c r="AO158" s="25"/>
-      <c r="AP158" s="25"/>
-      <c r="AQ158" s="25"/>
-      <c r="AR158" s="25"/>
-      <c r="AS158" s="25"/>
-      <c r="AT158" s="25"/>
-      <c r="AU158" s="25"/>
-      <c r="AV158" s="25"/>
-      <c r="AW158" s="25"/>
-      <c r="AX158" s="25"/>
-      <c r="AY158" s="25"/>
-      <c r="AZ158" s="25"/>
-      <c r="BA158" s="25"/>
-      <c r="BB158" s="25"/>
-      <c r="BC158" s="25"/>
-      <c r="BD158" s="25"/>
-      <c r="BE158" s="25"/>
-      <c r="BF158" s="25"/>
-      <c r="BG158" s="25"/>
-      <c r="BH158" s="25"/>
-      <c r="BI158" s="25"/>
-      <c r="BJ158" s="25"/>
-      <c r="BK158" s="25"/>
-      <c r="BL158" s="25"/>
-      <c r="BM158" s="25"/>
-      <c r="BN158" s="25"/>
-      <c r="BO158" s="25"/>
-      <c r="BP158" s="25"/>
-      <c r="BQ158" s="25"/>
-      <c r="BR158" s="25"/>
-      <c r="BS158" s="25"/>
-      <c r="BT158" s="25"/>
-      <c r="BU158" s="25"/>
-      <c r="BV158" s="25"/>
-      <c r="BW158" s="25"/>
-      <c r="BX158" s="25"/>
+    <row r="158" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="27"/>
+      <c r="K158" s="27"/>
+      <c r="L158" s="27"/>
+      <c r="M158" s="27"/>
+      <c r="N158" s="27"/>
+      <c r="O158" s="27"/>
+      <c r="P158" s="27"/>
+      <c r="Q158" s="27"/>
+      <c r="R158" s="27"/>
+      <c r="S158" s="27"/>
+      <c r="T158" s="27"/>
+      <c r="U158" s="27"/>
+      <c r="V158" s="27"/>
+      <c r="W158" s="27"/>
+      <c r="X158" s="27"/>
+      <c r="Y158" s="27"/>
+      <c r="Z158" s="27"/>
+      <c r="AA158" s="27"/>
+      <c r="AB158" s="27"/>
+      <c r="AC158" s="27"/>
+      <c r="AD158" s="27"/>
+      <c r="AE158" s="27"/>
+      <c r="AF158" s="27"/>
+      <c r="AG158" s="27"/>
+      <c r="AH158" s="27"/>
+      <c r="AI158" s="27"/>
+      <c r="AJ158" s="27"/>
+      <c r="AK158" s="27"/>
+      <c r="AL158" s="27"/>
+      <c r="AM158" s="27"/>
+      <c r="AN158" s="27"/>
+      <c r="AO158" s="27"/>
+      <c r="AP158" s="27"/>
+      <c r="AQ158" s="27"/>
+      <c r="AR158" s="27"/>
+      <c r="AS158" s="27"/>
+      <c r="AT158" s="27"/>
+      <c r="AU158" s="27"/>
+      <c r="AV158" s="27"/>
+      <c r="AW158" s="27"/>
+      <c r="AX158" s="27"/>
+      <c r="AY158" s="27"/>
+      <c r="AZ158" s="27"/>
+      <c r="BA158" s="27"/>
+      <c r="BB158" s="27"/>
+      <c r="BC158" s="27"/>
+      <c r="BD158" s="27"/>
+      <c r="BE158" s="27"/>
+      <c r="BF158" s="27"/>
+      <c r="BG158" s="27"/>
+      <c r="BH158" s="27"/>
+      <c r="BI158" s="27"/>
+      <c r="BJ158" s="27"/>
+      <c r="BK158" s="27"/>
+      <c r="BL158" s="27"/>
+      <c r="BM158" s="27"/>
+      <c r="BN158" s="27"/>
+      <c r="BO158" s="27"/>
+      <c r="BP158" s="27"/>
+      <c r="BQ158" s="27"/>
+      <c r="BR158" s="27"/>
+      <c r="BS158" s="27"/>
+      <c r="BT158" s="27"/>
+      <c r="BU158" s="27"/>
+      <c r="BV158" s="27"/>
+      <c r="BW158" s="27"/>
+      <c r="BX158" s="27"/>
     </row>
-    <row r="159" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
@@ -36416,22 +36417,22 @@
       <c r="BW159" s="23"/>
       <c r="BX159" s="23"/>
     </row>
-    <row r="160" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D160" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="161" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" spans="4:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="4:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="4:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="4:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D171" s="11"/>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
@@ -36481,7 +36482,7 @@
       <c r="BD171" s="12"/>
       <c r="BE171" s="13"/>
     </row>
-    <row r="172" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D172" s="18" t="s">
         <v>10</v>
       </c>
@@ -36531,7 +36532,7 @@
       <c r="BD172" s="3"/>
       <c r="BE172" s="4"/>
     </row>
-    <row r="173" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D173" s="5"/>
       <c r="E173" s="16" t="s">
         <v>74</v>
@@ -36581,7 +36582,7 @@
       <c r="BD173" s="6"/>
       <c r="BE173" s="7"/>
     </row>
-    <row r="174" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D174" s="5"/>
       <c r="E174" s="16" t="s">
         <v>76</v>
@@ -36631,7 +36632,7 @@
       <c r="BD174" s="6"/>
       <c r="BE174" s="7"/>
     </row>
-    <row r="175" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D175" s="5"/>
       <c r="E175" s="16" t="s">
         <v>78</v>
@@ -36677,7 +36678,7 @@
       <c r="BD175" s="6"/>
       <c r="BE175" s="7"/>
     </row>
-    <row r="176" spans="4:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:57" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D176" s="8"/>
       <c r="E176" s="17" t="s">
         <v>79</v>
@@ -36723,162 +36724,162 @@
       <c r="BD176" s="9"/>
       <c r="BE176" s="10"/>
     </row>
-    <row r="177" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C178" s="24" t="s">
+    <row r="177" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C178" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D178" s="25"/>
-      <c r="E178" s="25"/>
-      <c r="F178" s="25"/>
-      <c r="G178" s="25"/>
-      <c r="H178" s="25"/>
-      <c r="I178" s="25"/>
-      <c r="J178" s="25"/>
-      <c r="K178" s="25"/>
-      <c r="L178" s="25"/>
-      <c r="M178" s="25"/>
-      <c r="N178" s="25"/>
-      <c r="O178" s="25"/>
-      <c r="P178" s="25"/>
-      <c r="Q178" s="25"/>
-      <c r="R178" s="25"/>
-      <c r="S178" s="25"/>
-      <c r="T178" s="25"/>
-      <c r="U178" s="25"/>
-      <c r="V178" s="25"/>
-      <c r="W178" s="25"/>
-      <c r="X178" s="25"/>
-      <c r="Y178" s="25"/>
-      <c r="Z178" s="25"/>
-      <c r="AA178" s="25"/>
-      <c r="AB178" s="25"/>
-      <c r="AC178" s="25"/>
-      <c r="AD178" s="25"/>
-      <c r="AE178" s="25"/>
-      <c r="AF178" s="25"/>
-      <c r="AG178" s="25"/>
-      <c r="AH178" s="25"/>
-      <c r="AI178" s="25"/>
-      <c r="AJ178" s="25"/>
-      <c r="AK178" s="25"/>
-      <c r="AL178" s="25"/>
-      <c r="AM178" s="25"/>
-      <c r="AN178" s="25"/>
-      <c r="AO178" s="25"/>
-      <c r="AP178" s="25"/>
-      <c r="AQ178" s="25"/>
-      <c r="AR178" s="25"/>
-      <c r="AS178" s="25"/>
-      <c r="AT178" s="25"/>
-      <c r="AU178" s="25"/>
-      <c r="AV178" s="25"/>
-      <c r="AW178" s="25"/>
-      <c r="AX178" s="25"/>
-      <c r="AY178" s="25"/>
-      <c r="AZ178" s="25"/>
-      <c r="BA178" s="25"/>
-      <c r="BB178" s="25"/>
-      <c r="BC178" s="25"/>
-      <c r="BD178" s="25"/>
-      <c r="BE178" s="25"/>
-      <c r="BF178" s="25"/>
-      <c r="BG178" s="25"/>
-      <c r="BH178" s="25"/>
-      <c r="BI178" s="25"/>
-      <c r="BJ178" s="25"/>
-      <c r="BK178" s="25"/>
-      <c r="BL178" s="25"/>
-      <c r="BM178" s="25"/>
-      <c r="BN178" s="25"/>
-      <c r="BO178" s="25"/>
-      <c r="BP178" s="25"/>
-      <c r="BQ178" s="25"/>
-      <c r="BR178" s="25"/>
-      <c r="BS178" s="25"/>
-      <c r="BT178" s="25"/>
-      <c r="BU178" s="25"/>
-      <c r="BV178" s="25"/>
-      <c r="BW178" s="25"/>
-      <c r="BX178" s="25"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="27"/>
+      <c r="K178" s="27"/>
+      <c r="L178" s="27"/>
+      <c r="M178" s="27"/>
+      <c r="N178" s="27"/>
+      <c r="O178" s="27"/>
+      <c r="P178" s="27"/>
+      <c r="Q178" s="27"/>
+      <c r="R178" s="27"/>
+      <c r="S178" s="27"/>
+      <c r="T178" s="27"/>
+      <c r="U178" s="27"/>
+      <c r="V178" s="27"/>
+      <c r="W178" s="27"/>
+      <c r="X178" s="27"/>
+      <c r="Y178" s="27"/>
+      <c r="Z178" s="27"/>
+      <c r="AA178" s="27"/>
+      <c r="AB178" s="27"/>
+      <c r="AC178" s="27"/>
+      <c r="AD178" s="27"/>
+      <c r="AE178" s="27"/>
+      <c r="AF178" s="27"/>
+      <c r="AG178" s="27"/>
+      <c r="AH178" s="27"/>
+      <c r="AI178" s="27"/>
+      <c r="AJ178" s="27"/>
+      <c r="AK178" s="27"/>
+      <c r="AL178" s="27"/>
+      <c r="AM178" s="27"/>
+      <c r="AN178" s="27"/>
+      <c r="AO178" s="27"/>
+      <c r="AP178" s="27"/>
+      <c r="AQ178" s="27"/>
+      <c r="AR178" s="27"/>
+      <c r="AS178" s="27"/>
+      <c r="AT178" s="27"/>
+      <c r="AU178" s="27"/>
+      <c r="AV178" s="27"/>
+      <c r="AW178" s="27"/>
+      <c r="AX178" s="27"/>
+      <c r="AY178" s="27"/>
+      <c r="AZ178" s="27"/>
+      <c r="BA178" s="27"/>
+      <c r="BB178" s="27"/>
+      <c r="BC178" s="27"/>
+      <c r="BD178" s="27"/>
+      <c r="BE178" s="27"/>
+      <c r="BF178" s="27"/>
+      <c r="BG178" s="27"/>
+      <c r="BH178" s="27"/>
+      <c r="BI178" s="27"/>
+      <c r="BJ178" s="27"/>
+      <c r="BK178" s="27"/>
+      <c r="BL178" s="27"/>
+      <c r="BM178" s="27"/>
+      <c r="BN178" s="27"/>
+      <c r="BO178" s="27"/>
+      <c r="BP178" s="27"/>
+      <c r="BQ178" s="27"/>
+      <c r="BR178" s="27"/>
+      <c r="BS178" s="27"/>
+      <c r="BT178" s="27"/>
+      <c r="BU178" s="27"/>
+      <c r="BV178" s="27"/>
+      <c r="BW178" s="27"/>
+      <c r="BX178" s="27"/>
     </row>
-    <row r="179" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C179" s="25"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="25"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="25"/>
-      <c r="I179" s="25"/>
-      <c r="J179" s="25"/>
-      <c r="K179" s="25"/>
-      <c r="L179" s="25"/>
-      <c r="M179" s="25"/>
-      <c r="N179" s="25"/>
-      <c r="O179" s="25"/>
-      <c r="P179" s="25"/>
-      <c r="Q179" s="25"/>
-      <c r="R179" s="25"/>
-      <c r="S179" s="25"/>
-      <c r="T179" s="25"/>
-      <c r="U179" s="25"/>
-      <c r="V179" s="25"/>
-      <c r="W179" s="25"/>
-      <c r="X179" s="25"/>
-      <c r="Y179" s="25"/>
-      <c r="Z179" s="25"/>
-      <c r="AA179" s="25"/>
-      <c r="AB179" s="25"/>
-      <c r="AC179" s="25"/>
-      <c r="AD179" s="25"/>
-      <c r="AE179" s="25"/>
-      <c r="AF179" s="25"/>
-      <c r="AG179" s="25"/>
-      <c r="AH179" s="25"/>
-      <c r="AI179" s="25"/>
-      <c r="AJ179" s="25"/>
-      <c r="AK179" s="25"/>
-      <c r="AL179" s="25"/>
-      <c r="AM179" s="25"/>
-      <c r="AN179" s="25"/>
-      <c r="AO179" s="25"/>
-      <c r="AP179" s="25"/>
-      <c r="AQ179" s="25"/>
-      <c r="AR179" s="25"/>
-      <c r="AS179" s="25"/>
-      <c r="AT179" s="25"/>
-      <c r="AU179" s="25"/>
-      <c r="AV179" s="25"/>
-      <c r="AW179" s="25"/>
-      <c r="AX179" s="25"/>
-      <c r="AY179" s="25"/>
-      <c r="AZ179" s="25"/>
-      <c r="BA179" s="25"/>
-      <c r="BB179" s="25"/>
-      <c r="BC179" s="25"/>
-      <c r="BD179" s="25"/>
-      <c r="BE179" s="25"/>
-      <c r="BF179" s="25"/>
-      <c r="BG179" s="25"/>
-      <c r="BH179" s="25"/>
-      <c r="BI179" s="25"/>
-      <c r="BJ179" s="25"/>
-      <c r="BK179" s="25"/>
-      <c r="BL179" s="25"/>
-      <c r="BM179" s="25"/>
-      <c r="BN179" s="25"/>
-      <c r="BO179" s="25"/>
-      <c r="BP179" s="25"/>
-      <c r="BQ179" s="25"/>
-      <c r="BR179" s="25"/>
-      <c r="BS179" s="25"/>
-      <c r="BT179" s="25"/>
-      <c r="BU179" s="25"/>
-      <c r="BV179" s="25"/>
-      <c r="BW179" s="25"/>
-      <c r="BX179" s="25"/>
+    <row r="179" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C179" s="27"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="27"/>
+      <c r="K179" s="27"/>
+      <c r="L179" s="27"/>
+      <c r="M179" s="27"/>
+      <c r="N179" s="27"/>
+      <c r="O179" s="27"/>
+      <c r="P179" s="27"/>
+      <c r="Q179" s="27"/>
+      <c r="R179" s="27"/>
+      <c r="S179" s="27"/>
+      <c r="T179" s="27"/>
+      <c r="U179" s="27"/>
+      <c r="V179" s="27"/>
+      <c r="W179" s="27"/>
+      <c r="X179" s="27"/>
+      <c r="Y179" s="27"/>
+      <c r="Z179" s="27"/>
+      <c r="AA179" s="27"/>
+      <c r="AB179" s="27"/>
+      <c r="AC179" s="27"/>
+      <c r="AD179" s="27"/>
+      <c r="AE179" s="27"/>
+      <c r="AF179" s="27"/>
+      <c r="AG179" s="27"/>
+      <c r="AH179" s="27"/>
+      <c r="AI179" s="27"/>
+      <c r="AJ179" s="27"/>
+      <c r="AK179" s="27"/>
+      <c r="AL179" s="27"/>
+      <c r="AM179" s="27"/>
+      <c r="AN179" s="27"/>
+      <c r="AO179" s="27"/>
+      <c r="AP179" s="27"/>
+      <c r="AQ179" s="27"/>
+      <c r="AR179" s="27"/>
+      <c r="AS179" s="27"/>
+      <c r="AT179" s="27"/>
+      <c r="AU179" s="27"/>
+      <c r="AV179" s="27"/>
+      <c r="AW179" s="27"/>
+      <c r="AX179" s="27"/>
+      <c r="AY179" s="27"/>
+      <c r="AZ179" s="27"/>
+      <c r="BA179" s="27"/>
+      <c r="BB179" s="27"/>
+      <c r="BC179" s="27"/>
+      <c r="BD179" s="27"/>
+      <c r="BE179" s="27"/>
+      <c r="BF179" s="27"/>
+      <c r="BG179" s="27"/>
+      <c r="BH179" s="27"/>
+      <c r="BI179" s="27"/>
+      <c r="BJ179" s="27"/>
+      <c r="BK179" s="27"/>
+      <c r="BL179" s="27"/>
+      <c r="BM179" s="27"/>
+      <c r="BN179" s="27"/>
+      <c r="BO179" s="27"/>
+      <c r="BP179" s="27"/>
+      <c r="BQ179" s="27"/>
+      <c r="BR179" s="27"/>
+      <c r="BS179" s="27"/>
+      <c r="BT179" s="27"/>
+      <c r="BU179" s="27"/>
+      <c r="BV179" s="27"/>
+      <c r="BW179" s="27"/>
+      <c r="BX179" s="27"/>
     </row>
-    <row r="180" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
       <c r="E180" s="23"/>
@@ -36954,22 +36955,22 @@
       <c r="BW180" s="23"/>
       <c r="BX180" s="23"/>
     </row>
-    <row r="181" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D181" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="182" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D192" s="21" t="s">
         <v>87</v>
       </c>
@@ -37027,8 +37028,8 @@
       <c r="BD192" s="6"/>
       <c r="BE192" s="6"/>
     </row>
-    <row r="193" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D193" s="28" t="s">
+    <row r="193" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D193" s="24" t="s">
         <v>84</v>
       </c>
       <c r="E193" s="6"/>
@@ -37085,7 +37086,7 @@
       <c r="BD193" s="6"/>
       <c r="BE193" s="6"/>
     </row>
-    <row r="194" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D194" s="6"/>
       <c r="E194" s="16"/>
       <c r="F194" s="6"/>
@@ -37141,7 +37142,7 @@
       <c r="BD194" s="6"/>
       <c r="BE194" s="6"/>
     </row>
-    <row r="195" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D195" s="6"/>
       <c r="E195" s="16"/>
       <c r="F195" s="6"/>
@@ -37197,7 +37198,7 @@
       <c r="BD195" s="6"/>
       <c r="BE195" s="6"/>
     </row>
-    <row r="196" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D196" s="6"/>
       <c r="E196" s="16"/>
       <c r="F196" s="6"/>
@@ -37253,7 +37254,7 @@
       <c r="BD196" s="6"/>
       <c r="BE196" s="6"/>
     </row>
-    <row r="197" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D197" s="6"/>
       <c r="E197" s="16"/>
       <c r="F197" s="6"/>
@@ -37312,17 +37313,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="198" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BW198" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="199" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" spans="4:75" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="4:75" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="4:75" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="204" spans="4:75" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D204" s="11"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
@@ -37372,7 +37373,7 @@
       <c r="AY204" s="12"/>
       <c r="AZ204" s="13"/>
     </row>
-    <row r="205" spans="4:75" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:75" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D205" s="18" t="s">
         <v>10</v>
       </c>
@@ -37427,7 +37428,7 @@
       <c r="BG205" s="3"/>
       <c r="BH205" s="3"/>
       <c r="BI205" s="3"/>
-      <c r="BJ205" s="29" t="s">
+      <c r="BJ205" s="25" t="s">
         <v>6</v>
       </c>
       <c r="BK205" s="3"/>
@@ -37438,7 +37439,7 @@
       <c r="BP205" s="3"/>
       <c r="BQ205" s="4"/>
     </row>
-    <row r="206" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D206" s="5"/>
       <c r="E206" s="16" t="s">
         <v>95</v>
@@ -37504,7 +37505,7 @@
       <c r="BP206" s="3"/>
       <c r="BQ206" s="4"/>
     </row>
-    <row r="207" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D207" s="5"/>
       <c r="E207" s="16" t="s">
         <v>88</v>
@@ -37570,7 +37571,7 @@
       <c r="BP207" s="6"/>
       <c r="BQ207" s="7"/>
     </row>
-    <row r="208" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D208" s="5"/>
       <c r="E208" s="16" t="s">
         <v>89</v>
@@ -37636,7 +37637,7 @@
       <c r="BP208" s="6"/>
       <c r="BQ208" s="7"/>
     </row>
-    <row r="209" spans="4:69" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:69" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D209" s="8"/>
       <c r="E209" s="17" t="s">
         <v>90</v>
@@ -37700,7 +37701,7 @@
       <c r="BP209" s="6"/>
       <c r="BQ209" s="7"/>
     </row>
-    <row r="210" spans="4:69" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:69" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V210" s="8"/>
       <c r="W210" s="17" t="s">
         <v>97</v>
@@ -37734,7 +37735,7 @@
       <c r="BP210" s="6"/>
       <c r="BQ210" s="7"/>
     </row>
-    <row r="211" spans="4:69" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:69" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BD211" s="8"/>
       <c r="BE211" s="17" t="s">
         <v>103</v>
@@ -37752,18 +37753,18 @@
       <c r="BP211" s="9"/>
       <c r="BQ211" s="10"/>
     </row>
-    <row r="212" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="4:69" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="4:69" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="4:69" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="223" spans="4:69" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D223" s="11"/>
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
@@ -37781,7 +37782,7 @@
       <c r="P223" s="12"/>
       <c r="Q223" s="13"/>
     </row>
-    <row r="224" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D224" s="18" t="s">
         <v>9</v>
       </c>
@@ -37799,7 +37800,7 @@
       <c r="P224" s="3"/>
       <c r="Q224" s="4"/>
     </row>
-    <row r="225" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D225" s="5"/>
       <c r="E225" s="16" t="s">
         <v>104</v>
@@ -37817,7 +37818,7 @@
       <c r="P225" s="6"/>
       <c r="Q225" s="7"/>
     </row>
-    <row r="226" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D226" s="5"/>
       <c r="E226" s="16" t="s">
         <v>105</v>
@@ -37835,7 +37836,7 @@
       <c r="P226" s="6"/>
       <c r="Q226" s="7"/>
     </row>
-    <row r="227" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D227" s="5"/>
       <c r="E227" s="16" t="s">
         <v>106</v>
@@ -37853,7 +37854,7 @@
       <c r="P227" s="6"/>
       <c r="Q227" s="7"/>
     </row>
-    <row r="228" spans="3:76" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:76" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D228" s="8"/>
       <c r="E228" s="17"/>
       <c r="F228" s="9"/>
@@ -37869,969 +37870,969 @@
       <c r="P228" s="9"/>
       <c r="Q228" s="10"/>
     </row>
-    <row r="229" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C231" s="24" t="s">
+    <row r="229" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C231" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D231" s="25"/>
-      <c r="E231" s="25"/>
-      <c r="F231" s="25"/>
-      <c r="G231" s="25"/>
-      <c r="H231" s="25"/>
-      <c r="I231" s="25"/>
-      <c r="J231" s="25"/>
-      <c r="K231" s="25"/>
-      <c r="L231" s="25"/>
-      <c r="M231" s="25"/>
-      <c r="N231" s="25"/>
-      <c r="O231" s="25"/>
-      <c r="P231" s="25"/>
-      <c r="Q231" s="25"/>
-      <c r="R231" s="25"/>
-      <c r="S231" s="25"/>
-      <c r="T231" s="25"/>
-      <c r="U231" s="25"/>
-      <c r="V231" s="25"/>
-      <c r="W231" s="25"/>
-      <c r="X231" s="25"/>
-      <c r="Y231" s="25"/>
-      <c r="Z231" s="25"/>
-      <c r="AA231" s="25"/>
-      <c r="AB231" s="25"/>
-      <c r="AC231" s="25"/>
-      <c r="AD231" s="25"/>
-      <c r="AE231" s="25"/>
-      <c r="AF231" s="25"/>
-      <c r="AG231" s="25"/>
-      <c r="AH231" s="25"/>
-      <c r="AI231" s="25"/>
-      <c r="AJ231" s="25"/>
-      <c r="AK231" s="25"/>
-      <c r="AL231" s="25"/>
-      <c r="AM231" s="25"/>
-      <c r="AN231" s="25"/>
-      <c r="AO231" s="25"/>
-      <c r="AP231" s="25"/>
-      <c r="AQ231" s="25"/>
-      <c r="AR231" s="25"/>
-      <c r="AS231" s="25"/>
-      <c r="AT231" s="25"/>
-      <c r="AU231" s="25"/>
-      <c r="AV231" s="25"/>
-      <c r="AW231" s="25"/>
-      <c r="AX231" s="25"/>
-      <c r="AY231" s="25"/>
-      <c r="AZ231" s="25"/>
-      <c r="BA231" s="25"/>
-      <c r="BB231" s="25"/>
-      <c r="BC231" s="25"/>
-      <c r="BD231" s="25"/>
-      <c r="BE231" s="25"/>
-      <c r="BF231" s="25"/>
-      <c r="BG231" s="25"/>
-      <c r="BH231" s="25"/>
-      <c r="BI231" s="25"/>
-      <c r="BJ231" s="25"/>
-      <c r="BK231" s="25"/>
-      <c r="BL231" s="25"/>
-      <c r="BM231" s="25"/>
-      <c r="BN231" s="25"/>
-      <c r="BO231" s="25"/>
-      <c r="BP231" s="25"/>
-      <c r="BQ231" s="25"/>
-      <c r="BR231" s="25"/>
-      <c r="BS231" s="25"/>
-      <c r="BT231" s="25"/>
-      <c r="BU231" s="25"/>
-      <c r="BV231" s="25"/>
-      <c r="BW231" s="25"/>
-      <c r="BX231" s="25"/>
+      <c r="D231" s="27"/>
+      <c r="E231" s="27"/>
+      <c r="F231" s="27"/>
+      <c r="G231" s="27"/>
+      <c r="H231" s="27"/>
+      <c r="I231" s="27"/>
+      <c r="J231" s="27"/>
+      <c r="K231" s="27"/>
+      <c r="L231" s="27"/>
+      <c r="M231" s="27"/>
+      <c r="N231" s="27"/>
+      <c r="O231" s="27"/>
+      <c r="P231" s="27"/>
+      <c r="Q231" s="27"/>
+      <c r="R231" s="27"/>
+      <c r="S231" s="27"/>
+      <c r="T231" s="27"/>
+      <c r="U231" s="27"/>
+      <c r="V231" s="27"/>
+      <c r="W231" s="27"/>
+      <c r="X231" s="27"/>
+      <c r="Y231" s="27"/>
+      <c r="Z231" s="27"/>
+      <c r="AA231" s="27"/>
+      <c r="AB231" s="27"/>
+      <c r="AC231" s="27"/>
+      <c r="AD231" s="27"/>
+      <c r="AE231" s="27"/>
+      <c r="AF231" s="27"/>
+      <c r="AG231" s="27"/>
+      <c r="AH231" s="27"/>
+      <c r="AI231" s="27"/>
+      <c r="AJ231" s="27"/>
+      <c r="AK231" s="27"/>
+      <c r="AL231" s="27"/>
+      <c r="AM231" s="27"/>
+      <c r="AN231" s="27"/>
+      <c r="AO231" s="27"/>
+      <c r="AP231" s="27"/>
+      <c r="AQ231" s="27"/>
+      <c r="AR231" s="27"/>
+      <c r="AS231" s="27"/>
+      <c r="AT231" s="27"/>
+      <c r="AU231" s="27"/>
+      <c r="AV231" s="27"/>
+      <c r="AW231" s="27"/>
+      <c r="AX231" s="27"/>
+      <c r="AY231" s="27"/>
+      <c r="AZ231" s="27"/>
+      <c r="BA231" s="27"/>
+      <c r="BB231" s="27"/>
+      <c r="BC231" s="27"/>
+      <c r="BD231" s="27"/>
+      <c r="BE231" s="27"/>
+      <c r="BF231" s="27"/>
+      <c r="BG231" s="27"/>
+      <c r="BH231" s="27"/>
+      <c r="BI231" s="27"/>
+      <c r="BJ231" s="27"/>
+      <c r="BK231" s="27"/>
+      <c r="BL231" s="27"/>
+      <c r="BM231" s="27"/>
+      <c r="BN231" s="27"/>
+      <c r="BO231" s="27"/>
+      <c r="BP231" s="27"/>
+      <c r="BQ231" s="27"/>
+      <c r="BR231" s="27"/>
+      <c r="BS231" s="27"/>
+      <c r="BT231" s="27"/>
+      <c r="BU231" s="27"/>
+      <c r="BV231" s="27"/>
+      <c r="BW231" s="27"/>
+      <c r="BX231" s="27"/>
     </row>
-    <row r="232" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C232" s="25"/>
-      <c r="D232" s="25"/>
-      <c r="E232" s="25"/>
-      <c r="F232" s="25"/>
-      <c r="G232" s="25"/>
-      <c r="H232" s="25"/>
-      <c r="I232" s="25"/>
-      <c r="J232" s="25"/>
-      <c r="K232" s="25"/>
-      <c r="L232" s="25"/>
-      <c r="M232" s="25"/>
-      <c r="N232" s="25"/>
-      <c r="O232" s="25"/>
-      <c r="P232" s="25"/>
-      <c r="Q232" s="25"/>
-      <c r="R232" s="25"/>
-      <c r="S232" s="25"/>
-      <c r="T232" s="25"/>
-      <c r="U232" s="25"/>
-      <c r="V232" s="25"/>
-      <c r="W232" s="25"/>
-      <c r="X232" s="25"/>
-      <c r="Y232" s="25"/>
-      <c r="Z232" s="25"/>
-      <c r="AA232" s="25"/>
-      <c r="AB232" s="25"/>
-      <c r="AC232" s="25"/>
-      <c r="AD232" s="25"/>
-      <c r="AE232" s="25"/>
-      <c r="AF232" s="25"/>
-      <c r="AG232" s="25"/>
-      <c r="AH232" s="25"/>
-      <c r="AI232" s="25"/>
-      <c r="AJ232" s="25"/>
-      <c r="AK232" s="25"/>
-      <c r="AL232" s="25"/>
-      <c r="AM232" s="25"/>
-      <c r="AN232" s="25"/>
-      <c r="AO232" s="25"/>
-      <c r="AP232" s="25"/>
-      <c r="AQ232" s="25"/>
-      <c r="AR232" s="25"/>
-      <c r="AS232" s="25"/>
-      <c r="AT232" s="25"/>
-      <c r="AU232" s="25"/>
-      <c r="AV232" s="25"/>
-      <c r="AW232" s="25"/>
-      <c r="AX232" s="25"/>
-      <c r="AY232" s="25"/>
-      <c r="AZ232" s="25"/>
-      <c r="BA232" s="25"/>
-      <c r="BB232" s="25"/>
-      <c r="BC232" s="25"/>
-      <c r="BD232" s="25"/>
-      <c r="BE232" s="25"/>
-      <c r="BF232" s="25"/>
-      <c r="BG232" s="25"/>
-      <c r="BH232" s="25"/>
-      <c r="BI232" s="25"/>
-      <c r="BJ232" s="25"/>
-      <c r="BK232" s="25"/>
-      <c r="BL232" s="25"/>
-      <c r="BM232" s="25"/>
-      <c r="BN232" s="25"/>
-      <c r="BO232" s="25"/>
-      <c r="BP232" s="25"/>
-      <c r="BQ232" s="25"/>
-      <c r="BR232" s="25"/>
-      <c r="BS232" s="25"/>
-      <c r="BT232" s="25"/>
-      <c r="BU232" s="25"/>
-      <c r="BV232" s="25"/>
-      <c r="BW232" s="25"/>
-      <c r="BX232" s="25"/>
+    <row r="232" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C232" s="27"/>
+      <c r="D232" s="27"/>
+      <c r="E232" s="27"/>
+      <c r="F232" s="27"/>
+      <c r="G232" s="27"/>
+      <c r="H232" s="27"/>
+      <c r="I232" s="27"/>
+      <c r="J232" s="27"/>
+      <c r="K232" s="27"/>
+      <c r="L232" s="27"/>
+      <c r="M232" s="27"/>
+      <c r="N232" s="27"/>
+      <c r="O232" s="27"/>
+      <c r="P232" s="27"/>
+      <c r="Q232" s="27"/>
+      <c r="R232" s="27"/>
+      <c r="S232" s="27"/>
+      <c r="T232" s="27"/>
+      <c r="U232" s="27"/>
+      <c r="V232" s="27"/>
+      <c r="W232" s="27"/>
+      <c r="X232" s="27"/>
+      <c r="Y232" s="27"/>
+      <c r="Z232" s="27"/>
+      <c r="AA232" s="27"/>
+      <c r="AB232" s="27"/>
+      <c r="AC232" s="27"/>
+      <c r="AD232" s="27"/>
+      <c r="AE232" s="27"/>
+      <c r="AF232" s="27"/>
+      <c r="AG232" s="27"/>
+      <c r="AH232" s="27"/>
+      <c r="AI232" s="27"/>
+      <c r="AJ232" s="27"/>
+      <c r="AK232" s="27"/>
+      <c r="AL232" s="27"/>
+      <c r="AM232" s="27"/>
+      <c r="AN232" s="27"/>
+      <c r="AO232" s="27"/>
+      <c r="AP232" s="27"/>
+      <c r="AQ232" s="27"/>
+      <c r="AR232" s="27"/>
+      <c r="AS232" s="27"/>
+      <c r="AT232" s="27"/>
+      <c r="AU232" s="27"/>
+      <c r="AV232" s="27"/>
+      <c r="AW232" s="27"/>
+      <c r="AX232" s="27"/>
+      <c r="AY232" s="27"/>
+      <c r="AZ232" s="27"/>
+      <c r="BA232" s="27"/>
+      <c r="BB232" s="27"/>
+      <c r="BC232" s="27"/>
+      <c r="BD232" s="27"/>
+      <c r="BE232" s="27"/>
+      <c r="BF232" s="27"/>
+      <c r="BG232" s="27"/>
+      <c r="BH232" s="27"/>
+      <c r="BI232" s="27"/>
+      <c r="BJ232" s="27"/>
+      <c r="BK232" s="27"/>
+      <c r="BL232" s="27"/>
+      <c r="BM232" s="27"/>
+      <c r="BN232" s="27"/>
+      <c r="BO232" s="27"/>
+      <c r="BP232" s="27"/>
+      <c r="BQ232" s="27"/>
+      <c r="BR232" s="27"/>
+      <c r="BS232" s="27"/>
+      <c r="BT232" s="27"/>
+      <c r="BU232" s="27"/>
+      <c r="BV232" s="27"/>
+      <c r="BW232" s="27"/>
+      <c r="BX232" s="27"/>
     </row>
-    <row r="233" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C234" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="235" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1019" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1023" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1025" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1026" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1027" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1028" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1029" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1030" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1031" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1032" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1033" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1034" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1035" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="3:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1025" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1026" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1027" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C231:BX232"/>
